--- a/months/jun23NEW_VERSION/jun23OLD_VERSION.xlsx
+++ b/months/jun23NEW_VERSION/jun23OLD_VERSION.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">L1</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
     <t xml:space="preserve">22:40</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
     <t xml:space="preserve">22:10</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.5</t>
   </si>
   <si>
@@ -486,7 +486,7 @@
     <t xml:space="preserve">{"+": {"CDIF": 50, "P": 25}, "-": {"CDIF": 0, "P": -25}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{"&gt;=.3": "20*"," &gt;=.1": "10*", "&lt;.1": 0}</t>
+    <t xml:space="preserve">{"&gt;=.3": "20*", "&gt;=.1": "10*", "&lt;.1": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">dutyFalse</t>
@@ -1025,15 +1025,15 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="AG13" activeCellId="0" sqref="AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
@@ -1244,16 +1244,16 @@
         <v>14</v>
       </c>
       <c r="L2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -1262,35 +1262,35 @@
         <v>12</v>
       </c>
       <c r="T2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="Y2" s="10"/>
       <c r="Z2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE2" s="10" t="s">
         <v>22</v>
@@ -1300,7 +1300,7 @@
         <v>23</v>
       </c>
       <c r="AH2" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI2" s="0" t="n">
         <v>1</v>
@@ -1337,24 +1337,24 @@
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U3" s="7"/>
       <c r="V3" s="8"/>
@@ -1364,19 +1364,19 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="10"/>
       <c r="Z3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE3" s="10" t="s">
         <v>22</v>
@@ -1386,7 +1386,7 @@
         <v>30</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI3" s="0" t="n">
         <v>2</v>
@@ -1422,27 +1422,27 @@
         <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R4" s="8"/>
       <c r="S4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="8"/>
@@ -1456,7 +1456,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
       <c r="AD4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE4" s="7" t="s">
         <v>32</v>
@@ -1466,7 +1466,7 @@
         <v>23</v>
       </c>
       <c r="AH4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI4" s="0" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>12</v>
@@ -1508,16 +1508,16 @@
         <v>32</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
@@ -1526,7 +1526,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W5" s="7" t="s">
         <v>29</v>
@@ -1538,13 +1538,13 @@
         <v>32</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE5" s="10" t="s">
         <v>32</v>
@@ -1554,7 +1554,7 @@
         <v>28</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI5" s="10"/>
     </row>
@@ -1579,7 +1579,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>36</v>
@@ -1594,13 +1594,13 @@
         <v>32</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="3"/>
@@ -1610,19 +1610,19 @@
         <v>37</v>
       </c>
       <c r="T6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="W6" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="7"/>
@@ -1630,7 +1630,7 @@
         <v>38</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>11</v>
@@ -1644,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI6" s="10"/>
     </row>
@@ -1669,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>36</v>
@@ -1684,13 +1684,13 @@
         <v>32</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="3"/>
@@ -1700,26 +1700,26 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AB7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD7" s="9"/>
       <c r="AE7" s="10" t="s">
@@ -1730,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI7" s="10"/>
     </row>
@@ -1764,53 +1764,53 @@
         <v>32</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="W8" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X8" s="10"/>
       <c r="Y8" s="10" t="s">
         <v>40</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA8" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>32</v>
@@ -1820,7 +1820,7 @@
         <v>23</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI8" s="10"/>
     </row>
@@ -1854,16 +1854,16 @@
         <v>32</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -1874,13 +1874,13 @@
         <v>27</v>
       </c>
       <c r="T9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>35</v>
@@ -1888,19 +1888,19 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="AB9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>32</v>
@@ -1910,10 +1910,10 @@
         <v>23</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>36</v>
@@ -1952,16 +1952,16 @@
         <v>32</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1970,7 +1970,7 @@
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>29</v>
@@ -1978,19 +1978,19 @@
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
       <c r="Z10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AB10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE10" s="10" t="s">
         <v>32</v>
@@ -1998,7 +1998,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="7"/>
       <c r="AH10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" s="10"/>
     </row>
@@ -2035,13 +2035,13 @@
         <v>32</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
@@ -2050,7 +2050,7 @@
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W11" s="7" t="s">
         <v>11</v>
@@ -2058,19 +2058,19 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="10"/>
       <c r="Z11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE11" s="10" t="s">
         <v>32</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>12</v>
@@ -2110,29 +2110,29 @@
         <v>32</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="7" t="s">
         <v>37</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>47</v>
@@ -2140,13 +2140,13 @@
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA12" s="7" t="s">
         <v>48</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>29</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2184,7 +2184,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>11</v>
@@ -2193,22 +2193,22 @@
         <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2217,13 +2217,13 @@
         <v>12</v>
       </c>
       <c r="T13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>29</v>
@@ -2233,32 +2233,32 @@
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AB13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF13" s="3"/>
       <c r="AG13" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,26 +2294,26 @@
         <v>34</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="T14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V14" s="8"/>
       <c r="W14" s="7" t="s">
@@ -2324,22 +2324,22 @@
         <v>56</v>
       </c>
       <c r="Z14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF14" s="3" t="s">
         <v>57</v>
@@ -2348,10 +2348,10 @@
         <v>51</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>58</v>
@@ -2385,66 +2385,66 @@
         <v>14</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="7" t="s">
         <v>60</v>
       </c>
       <c r="T15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V15" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="W15" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AB15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF15" s="3"/>
       <c r="AG15" s="7" t="s">
         <v>52</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>58</v>
@@ -2472,20 +2472,20 @@
         <v>12</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>11</v>
@@ -2494,13 +2494,13 @@
         <v>63</v>
       </c>
       <c r="T16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V16" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>29</v>
@@ -2514,16 +2514,16 @@
         <v>28</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF16" s="3"/>
       <c r="AG16" s="7" t="s">
@@ -2553,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>12</v>
@@ -2565,16 +2565,16 @@
         <v>14</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -2583,31 +2583,31 @@
         <v>14</v>
       </c>
       <c r="T17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="U17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="W17" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE17" s="10" t="s">
         <v>29</v>
@@ -2617,7 +2617,7 @@
         <v>52</v>
       </c>
       <c r="AH17" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI17" s="0" t="n">
         <v>1</v>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C18" s="7"/>
       <c r="H18" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>58</v>
@@ -2645,61 +2645,61 @@
         <v>32</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>62</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="8"/>
       <c r="S18" s="7" t="s">
         <v>65</v>
       </c>
       <c r="T18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="3"/>
       <c r="AG18" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AH18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2718,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>12</v>
@@ -2730,16 +2730,16 @@
         <v>32</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -2748,13 +2748,13 @@
         <v>12</v>
       </c>
       <c r="T19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>36</v>
@@ -2762,29 +2762,29 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF19" s="3"/>
       <c r="AG19" s="7" t="s">
         <v>67</v>
       </c>
       <c r="AH19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI19" s="0" t="n">
         <v>2</v>
@@ -2803,7 +2803,7 @@
         <v>53</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>14</v>
@@ -2815,55 +2815,55 @@
         <v>32</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>64</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R20" s="8"/>
       <c r="S20" s="7" t="s">
         <v>33</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10" t="s">
         <v>56</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="AB20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC20" s="7" t="s">
         <v>29</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>32</v>
@@ -2873,7 +2873,7 @@
         <v>59</v>
       </c>
       <c r="AH20" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI20" s="10" t="s">
         <v>29</v>
@@ -2895,7 +2895,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>29</v>
@@ -2904,22 +2904,22 @@
         <v>12</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -2928,21 +2928,21 @@
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC21" s="7" t="s">
         <v>11</v>
@@ -2956,7 +2956,7 @@
         <v>23</v>
       </c>
       <c r="AH21" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" s="10"/>
     </row>
@@ -2973,28 +2973,28 @@
         <v>31</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -3005,13 +3005,13 @@
         <v>37</v>
       </c>
       <c r="T22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="U22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>18</v>
       </c>
       <c r="W22" s="10" t="s">
         <v>42</v>
@@ -3021,19 +3021,19 @@
         <v>40</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA22" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AB22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE22" s="10" t="s">
         <v>32</v>
@@ -3043,7 +3043,7 @@
         <v>28</v>
       </c>
       <c r="AH22" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" s="10"/>
     </row>
@@ -4513,11 +4513,11 @@
   </sheetPr>
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA7" activeCellId="0" sqref="AA7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC5" activeCellId="0" sqref="AC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.72"/>
